--- a/xlsx/科学主义_intext.xlsx
+++ b/xlsx/科学主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>科学主义</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
-    <t>機器翻譯</t>
+    <t>机器翻译</t>
   </si>
   <si>
     <t>政策_政策_管理_科学主义</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B6%E7%BE%A9</t>
   </si>
   <si>
-    <t>貶義</t>
+    <t>贬义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%B8%B8%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>超常現象</t>
+    <t>超常现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%93%B2%E5%AD%A6</t>
@@ -239,9 +239,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>猶太人大屠殺</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%A2%9D</t>
   </si>
   <si>
-    <t>教條</t>
+    <t>教条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -1748,7 +1745,7 @@
         <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1774,10 +1771,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>12</v>
@@ -1803,10 +1800,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1832,10 +1829,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1861,10 +1858,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
         <v>75</v>
-      </c>
-      <c r="F43" t="s">
-        <v>76</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -1890,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1919,10 +1916,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1948,10 +1945,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
